--- a/forecasts/data_analysis_reports/Next_Month_Info.xlsx
+++ b/forecasts/data_analysis_reports/Next_Month_Info.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month</t>
+  </si>
   <si>
     <t xml:space="preserve">InsuredCount</t>
   </si>
@@ -58,9 +64,6 @@
     <t xml:space="preserve">ActiveWeight_P8</t>
   </si>
   <si>
-    <t xml:space="preserve">ActiveWeight_P9</t>
-  </si>
-  <si>
     <t xml:space="preserve">ActiveWeight_P10</t>
   </si>
   <si>
@@ -92,6 +95,30 @@
   </si>
   <si>
     <t xml:space="preserve">ActiveWeight_P21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unmarried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
   </si>
 </sst>
 </file>
@@ -127,8 +154,9 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -181,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,10 +220,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -215,33 +239,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X3" activeCellId="0" sqref="X3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="37.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="29.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="20.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16382" min="16382" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,84 +326,132 @@
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>144297</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>25090</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>87711</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>26656</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>2645</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>2594158</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>500562</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>439773</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>368564</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>1103863</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>91129</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>260567</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>82128</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>64046</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>65769</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>1017053</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>42658</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>81485</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>891570</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>937760</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>575602</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>630880</v>
+      <c r="A2" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>136565</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>28681</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>86749</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>26093</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>2927</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>2602472</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>563558</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>442841</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>374351</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1109472</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>97420</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>244586</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>78324</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>74445</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>75439</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>990519</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>50304</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>87769</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>1159180</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>1068519</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>644264</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>369569</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>99516</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>36913</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>118222</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>18343</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>59628</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>76937</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
